--- a/2.+Formatting+BEFORE.xlsx
+++ b/2.+Formatting+BEFORE.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarro\OneDrive\Desktop\Udemy Course\Course Materials\Versions Before Editing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="41" documentId="114_{1B4234B9-9045-443E-93D8-3B3EFBA60D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{658809F1-DA77-4A4F-8BE4-86494BC250E6}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{475441BA-7EB5-4E17-9633-4D459079EFA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Formatting 1" sheetId="17" r:id="rId1"/>
@@ -17,9 +23,9 @@
     <sheet name="Conditional Formatting 1" sheetId="15" r:id="rId8"/>
     <sheet name="Conditional Formatting 2" sheetId="16" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="241">
   <si>
     <t>Symbol</t>
   </si>
@@ -756,47 +762,45 @@
   </si>
   <si>
     <t>Cell Style 2</t>
-  </si>
-  <si>
-    <t>Tiger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="29">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="170" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="171" formatCode="\tes\t"/>
-    <numFmt numFmtId="172" formatCode="#,##0;\-#,##0;\-;&quot;Enter a number&quot;"/>
-    <numFmt numFmtId="173" formatCode="[Green][&gt;100]#,##0;[Red][&lt;=-100]General;[Blue]General"/>
-    <numFmt numFmtId="174" formatCode="&quot;word&quot;\ 0.0"/>
-    <numFmt numFmtId="175" formatCode="&quot;word&quot;"/>
-    <numFmt numFmtId="176" formatCode="[Red]0"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;0"/>
-    <numFmt numFmtId="178" formatCode="#.##"/>
-    <numFmt numFmtId="179" formatCode="0.00;;"/>
-    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,##0.0,&quot;K&quot;;\ \-&quot;$&quot;#,##0.0,&quot;K&quot;;\ \-;"/>
-    <numFmt numFmtId="181" formatCode="m"/>
-    <numFmt numFmtId="182" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="183" formatCode="mm"/>
-    <numFmt numFmtId="184" formatCode="mmm"/>
-    <numFmt numFmtId="185" formatCode="mmmm"/>
-    <numFmt numFmtId="186" formatCode=";;;"/>
-    <numFmt numFmtId="187" formatCode="&quot;$&quot;#,##0,&quot;K&quot;;\-&quot;$&quot;#,##0,&quot;K&quot;;\-;"/>
-    <numFmt numFmtId="188" formatCode="[Color10]&quot;▲&quot;* ;[Red]\▼* ;\-_);"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="30">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="170" formatCode="\tes\t"/>
+    <numFmt numFmtId="171" formatCode="#,##0;\-#,##0;\-;&quot;Enter a number&quot;"/>
+    <numFmt numFmtId="172" formatCode="[Green][&gt;100]#,##0;[Red][&lt;=-100]General;[Blue]General"/>
+    <numFmt numFmtId="173" formatCode="&quot;word&quot;\ 0.0"/>
+    <numFmt numFmtId="174" formatCode="&quot;word&quot;"/>
+    <numFmt numFmtId="175" formatCode="[Red]0"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;0"/>
+    <numFmt numFmtId="177" formatCode="#.##"/>
+    <numFmt numFmtId="178" formatCode="0.00;;"/>
+    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.0,&quot;K&quot;;\ \-&quot;$&quot;#,##0.0,&quot;K&quot;;\ \-;"/>
+    <numFmt numFmtId="180" formatCode="m"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="182" formatCode="mm"/>
+    <numFmt numFmtId="183" formatCode="mmm"/>
+    <numFmt numFmtId="184" formatCode="mmmm"/>
+    <numFmt numFmtId="185" formatCode=";;;"/>
+    <numFmt numFmtId="186" formatCode="&quot;$&quot;#,##0,&quot;K&quot;;\-&quot;$&quot;#,##0,&quot;K&quot;;\-;"/>
+    <numFmt numFmtId="187" formatCode="[Color10]&quot;▲&quot;* ;[Red]\▼* ;\-_);"/>
     <numFmt numFmtId="189" formatCode="[h]"/>
     <numFmt numFmtId="190" formatCode="*@"/>
     <numFmt numFmtId="191" formatCode="0* "/>
-    <numFmt numFmtId="192" formatCode="#"/>
-    <numFmt numFmtId="193" formatCode="#,##0;\-#,##0;\-;@"/>
+    <numFmt numFmtId="195" formatCode="#"/>
+    <numFmt numFmtId="196" formatCode="#,##0;\-#,##0;\-;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,7 +891,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -915,18 +919,8 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
-    <fill>
-      <gradientFill degree="270">
-        <stop position="0">
-          <color theme="5" tint="0.40000610370189521"/>
-        </stop>
-        <stop position="1">
-          <color theme="4"/>
-        </stop>
-      </gradientFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1002,135 +996,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1139,13 +1030,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1163,14 +1054,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1180,13 +1072,12 @@
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1197,12 +1088,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1210,6 +1101,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1218,40 +1110,212 @@
     <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
-    <cellStyle name="myheader" xfId="4"/>
-    <cellStyle name="mynumber" xfId="5"/>
+    <cellStyle name="myheader" xfId="4" xr:uid="{76BC8490-FEAE-4160-983A-BA720BE90F7D}"/>
+    <cellStyle name="mynumber" xfId="5" xr:uid="{FB7071D1-53D8-4146-ABB7-265E1A01669A}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="26">
     <dxf>
       <font>
         <color auto="1"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="17" formatCode="#\ ?/?"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1321,7 +1385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1373,7 +1437,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1567,706 +1631,706 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9F35C6-7CA5-431C-A604-40285C430CEA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="74"/>
+      <c r="B1" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-    </row>
-    <row r="2" spans="1:17" ht="42.75" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="82" t="s">
+      <c r="G2" s="74"/>
+      <c r="H2" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71" t="s">
+      <c r="K2" s="74"/>
+      <c r="L2" s="74" t="s">
         <v>235</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-    </row>
-    <row r="3" spans="1:17" ht="44.25" customHeight="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71" t="s">
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+    </row>
+    <row r="3" spans="1:17" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="85" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="86" t="s">
+      <c r="I3" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71" t="s">
+      <c r="K3" s="74"/>
+      <c r="L3" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-    </row>
-    <row r="4" spans="1:17" ht="51.95" customHeight="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71" t="s">
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+    </row>
+    <row r="4" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="85" t="s">
+      <c r="G4" s="74"/>
+      <c r="H4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-    </row>
-    <row r="5" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74" t="s">
         <v>238</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="85" t="s">
+      <c r="G5" s="74"/>
+      <c r="H5" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="87" t="s">
+      <c r="J5" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-    </row>
-    <row r="6" spans="1:17" ht="55.5" customHeight="1">
-      <c r="A6" s="71"/>
-      <c r="B6" s="81" t="s">
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+    </row>
+    <row r="6" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="74"/>
+      <c r="B6" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="85" t="s">
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="86" t="s">
+      <c r="I6" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="87" t="s">
+      <c r="J6" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-    </row>
-    <row r="7" spans="1:17" ht="49.5" customHeight="1">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71" t="s">
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="74"/>
+      <c r="B7" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="88" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="90" t="s">
+      <c r="J7" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="74"/>
+      <c r="B10" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="74"/>
+      <c r="B12" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="74"/>
+      <c r="B13" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71" t="s">
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71" t="s">
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="74"/>
+      <c r="B15" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71" t="s">
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71" t="s">
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="71"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="71"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="71"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="71"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2275,51 +2339,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F32966-4DD4-457E-9745-CF512A5F7E80}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="62.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="H1" s="31" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="27" t="s">
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="91">
+      <c r="B2" s="73">
         <v>125</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
@@ -2329,82 +2390,82 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="18">
         <v>125</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="9">
         <v>12375</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="10">
         <v>12375</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="20">
         <v>125</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="92">
+      <c r="E4" s="8">
         <v>57.6</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="10">
         <v>57.6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="21">
         <v>125</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="92">
+      <c r="E5" s="7">
         <v>24.64</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="10">
         <v>24.64</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="22">
         <v>125</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="27" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="24">
         <v>125</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="14"/>
       <c r="E7" t="s">
         <v>12</v>
       </c>
@@ -2412,81 +2473,81 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="25">
         <v>125</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="10">
+      <c r="D8" s="14"/>
+      <c r="E8" s="12">
         <v>43777</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="13">
         <v>0.67013888888888884</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="24">
-        <v>0.24</v>
-      </c>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="26">
+        <v>125.25</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="27" t="s">
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="27">
         <v>125</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="14"/>
       <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="12">
         <v>43777</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="14"/>
       <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="12">
         <v>43798</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="14"/>
       <c r="E12" t="s">
         <v>29</v>
       </c>
@@ -2495,79 +2556,79 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
       <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="12">
         <v>43770</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="13">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="15">
         <v>1E+26</v>
       </c>
       <c r="C15" s="5">
         <f>B11+0</f>
         <v>125</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="14"/>
       <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="12">
         <f>F14-1</f>
         <v>43769</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="73">
+      <c r="F17" s="76">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="30">
+    <row r="19" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E20">
         <v>100000000</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="15">
         <v>100000000</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E25" s="5"/>
     </row>
   </sheetData>
@@ -2577,31 +2638,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D53C72D-6A61-49A8-8AD4-BFABCE0C9C99}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2609,35 +2670,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="4">
         <v>100</v>
       </c>
-      <c r="G3" s="78">
+      <c r="G3" s="81">
         <v>100</v>
       </c>
-      <c r="H3" s="78">
+      <c r="H3" s="81">
         <v>-100</v>
       </c>
-      <c r="I3" s="78">
+      <c r="I3" s="81">
         <v>0</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="81" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="42">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -2645,212 +2706,212 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="77">
+      <c r="B6" s="80">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="40">
         <v>100</v>
       </c>
-      <c r="E8" s="41"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="12">
         <v>100</v>
       </c>
-      <c r="F9" s="49"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="F9" s="51"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="39">
         <v>100</v>
       </c>
-      <c r="F10" s="49"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="32" t="s">
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="38">
         <v>100</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="F11" s="49"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="F11" s="51"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="37">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="35" t="s">
         <v>231</v>
       </c>
       <c r="C13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="36">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="44">
         <v>100</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="51">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="51">
         <v>100</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="45">
         <v>100</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="51">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="29" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="12">
         <v>43650</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="47">
         <v>43650</v>
       </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="46">
         <v>43650</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="79">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="48">
         <v>43650</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="49">
         <v>43650</v>
       </c>
-      <c r="F25" s="74">
+      <c r="F25" s="77">
         <v>1.5</v>
       </c>
-      <c r="H25" s="75"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="H25" s="78"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="50">
         <v>43650</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="29" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
@@ -2858,35 +2919,35 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="50" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="10">
         <v>100</v>
       </c>
       <c r="C36" t="s">
@@ -2899,22 +2960,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31555373-CD73-4EAB-9F3E-36154407126C}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -2922,7 +2983,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>48</v>
       </c>
@@ -2930,7 +2991,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>60</v>
       </c>
@@ -2938,7 +2999,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>60</v>
       </c>
@@ -2946,7 +3007,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>48</v>
       </c>
@@ -2957,16 +3018,16 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>47</v>
       </c>
       <c r="B6">
         <v>65</v>
       </c>
-      <c r="G6" s="51"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="53"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>53</v>
       </c>
@@ -2974,7 +3035,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>36</v>
       </c>
@@ -2982,7 +3043,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>59</v>
       </c>
@@ -2990,7 +3051,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>46</v>
       </c>
@@ -3004,27 +3065,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC7BB06-5EFB-460A-B654-F10D45D2BCDB}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -3038,7 +3099,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -3052,7 +3113,7 @@
         <v>899825</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -3069,7 +3130,7 @@
         <v>-45868</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -3086,7 +3147,7 @@
         <v>853957</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -3100,7 +3161,7 @@
         <v>-356942.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -3117,7 +3178,7 @@
         <v>497014.75</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -3131,7 +3192,7 @@
         <v>-25857</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -3148,7 +3209,7 @@
         <v>471157.75</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -3162,7 +3223,7 @@
         <v>-173059</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -3176,7 +3237,7 @@
         <v>-54570</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -3190,7 +3251,7 @@
         <v>-63736</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -3204,7 +3265,7 @@
         <v>-125468</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -3221,7 +3282,7 @@
         <v>54324.75</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -3245,353 +3306,353 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD7EB0-DBDE-4B73-8A87-BC6E9A0C596B}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1796875" customWidth="1"/>
+    <col min="6" max="6" width="3.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.4">
+      <c r="A1" s="54" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="57" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="58"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickTop="1">
+      <c r="F2" s="60"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="55">
         <v>881303</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="55">
         <v>888800</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="56">
         <f>(C3-B3)</f>
         <v>7497</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="55">
         <v>899825</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="56">
         <f t="shared" ref="F3:F15" si="0">(E3-D3)</f>
         <v>892328</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="55">
         <f>55383*(-1)</f>
         <v>-55383</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="55">
         <f>46462*(-1)</f>
         <v>-46462</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="56">
         <f t="shared" ref="D4:D15" si="1">(C4-B4)</f>
         <v>8921</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="55">
         <f>45868*(-1)</f>
         <v>-45868</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="56">
         <f t="shared" si="0"/>
         <v>-54789</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="59" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="62">
         <f>SUM(B3:B4)</f>
         <v>825920</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="62">
         <f t="shared" ref="C5:E5" si="2">SUM(C3:C4)</f>
         <v>842338</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="66">
         <f t="shared" si="1"/>
         <v>16418</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="62">
         <f t="shared" si="2"/>
         <v>853957</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="66">
         <f t="shared" si="0"/>
         <v>837539</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="55">
         <v>-342016.96</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="55">
         <v>-326640</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="56">
         <f t="shared" si="1"/>
         <v>15376.960000000021</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="55">
         <v>-356942.25</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="56">
         <f t="shared" si="0"/>
         <v>-372319.21</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="59" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="62">
         <f>SUM(B5:B6)</f>
         <v>483903.04</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="62">
         <f t="shared" ref="C7:E7" si="3">SUM(C5:C6)</f>
         <v>515698</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="66">
         <f t="shared" si="1"/>
         <v>31794.960000000021</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="62">
         <f t="shared" si="3"/>
         <v>497014.75</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="66">
         <f t="shared" si="0"/>
         <v>465219.79</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="55">
         <v>-31262</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="55">
         <v>-31422</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="56">
         <f t="shared" si="1"/>
         <v>-160</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="55">
         <v>-25857</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="56">
         <f t="shared" si="0"/>
         <v>-25697</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="59" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="62">
         <f>SUM(B7:B8)</f>
         <v>452641.04</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="62">
         <f t="shared" ref="C9:E9" si="4">SUM(C7:C8)</f>
         <v>484276</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="57">
         <f t="shared" si="1"/>
         <v>31634.960000000021</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="62">
         <f t="shared" si="4"/>
         <v>471157.75</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="57">
         <f t="shared" si="0"/>
         <v>439522.79</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="55">
         <v>-171666</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="55">
         <v>-144457</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="56">
         <f t="shared" si="1"/>
         <v>27209</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="55">
         <v>-173059</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="56">
         <f t="shared" si="0"/>
         <v>-200268</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="55">
         <v>-92222</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="55">
         <v>-80361</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="56">
         <f t="shared" si="1"/>
         <v>11861</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="55">
         <v>-54570</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="56">
         <f t="shared" si="0"/>
         <v>-66431</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="55">
         <v>-67672</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="55">
         <v>-67996</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="56">
         <f t="shared" si="1"/>
         <v>-324</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="55">
         <v>-63736</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="56">
         <f t="shared" si="0"/>
         <v>-63412</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="55">
         <v>-105318</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="55">
         <v>-108652</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="56">
         <f t="shared" si="1"/>
         <v>-3334</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="55">
         <v>-125468</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="56">
         <f t="shared" si="0"/>
         <v>-122134</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="59" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="60">
+      <c r="B14" s="62">
         <f>SUM(B9:B13)</f>
         <v>15763.039999999979</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="62">
         <f t="shared" ref="C14:E14" si="5">SUM(C9:C13)</f>
         <v>82810</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="57">
         <f t="shared" si="1"/>
         <v>67046.960000000021</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="62">
         <f t="shared" si="5"/>
         <v>54324.75</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="57">
         <f t="shared" si="0"/>
         <v>-12722.210000000021</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="61" t="s">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="64">
         <f>B14/B5</f>
         <v>1.9085432003099548E-2</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="64">
         <f>C14/C5</f>
         <v>9.8309704655375876E-2</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="65">
         <f t="shared" si="1"/>
         <v>7.9224272652276329E-2</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="64">
         <f>E14/E5</f>
         <v>6.3615322551369688E-2</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="65">
         <f t="shared" si="0"/>
         <v>-1.5608950100906641E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickTop="1"/>
+    <row r="16" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A44E3E9-9FC9-41EC-9992-59BB9CA8458A}">
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
@@ -3601,57 +3662,57 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -3664,45 +3725,45 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE80D768-0C27-4366-8C84-2EF6E3C90426}">
   <dimension ref="B1:BO23"/>
   <sheetViews>
-    <sheetView zoomScale="97" workbookViewId="0">
+    <sheetView zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" customWidth="1"/>
-    <col min="9" max="9" width="1.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" customWidth="1"/>
-    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="1.85546875" customWidth="1"/>
-    <col min="37" max="37" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" customWidth="1"/>
+    <col min="9" max="9" width="1.81640625" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.26953125" customWidth="1"/>
+    <col min="22" max="22" width="8.81640625" customWidth="1"/>
+    <col min="30" max="30" width="14.36328125" customWidth="1"/>
+    <col min="31" max="31" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="1.81640625" customWidth="1"/>
+    <col min="37" max="37" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="15" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="1.85546875" customWidth="1"/>
-    <col min="46" max="46" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="1.28515625" customWidth="1"/>
-    <col min="55" max="55" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="64" width="8.85546875" customWidth="1"/>
-    <col min="65" max="65" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8.85546875" customWidth="1"/>
-    <col min="67" max="67" width="13.85546875" customWidth="1"/>
-    <col min="68" max="68" width="8.85546875" customWidth="1"/>
-    <col min="69" max="69" width="39.5703125" customWidth="1"/>
+    <col min="45" max="45" width="1.81640625" customWidth="1"/>
+    <col min="46" max="46" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="1.26953125" customWidth="1"/>
+    <col min="55" max="55" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="57" max="64" width="8.90625" customWidth="1"/>
+    <col min="65" max="65" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.90625" customWidth="1"/>
+    <col min="67" max="67" width="13.90625" customWidth="1"/>
+    <col min="68" max="68" width="8.90625" customWidth="1"/>
+    <col min="69" max="69" width="39.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" s="3" customFormat="1" ht="60">
+    <row r="1" spans="2:67" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>121</v>
       </c>
@@ -3736,63 +3797,63 @@
       <c r="P1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="T1" s="69" t="s">
+      <c r="T1" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="U1" s="69" t="s">
+      <c r="U1" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="V1" s="69" t="s">
+      <c r="V1" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="W1" s="69" t="s">
+      <c r="W1" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="X1" s="69" t="s">
+      <c r="X1" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69" t="s">
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="AC1" s="69"/>
+      <c r="AC1" s="71"/>
       <c r="AD1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AE1" s="69" t="s">
+      <c r="AE1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="69" t="s">
+      <c r="AF1" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="AG1" s="69" t="s">
+      <c r="AG1" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="AH1" s="69" t="s">
+      <c r="AH1" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="AI1" s="69" t="s">
+      <c r="AI1" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="AK1" s="69" t="s">
+      <c r="AK1" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="AL1" s="69" t="s">
+      <c r="AL1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69" t="s">
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="AO1" s="69"/>
+      <c r="AO1" s="71"/>
       <c r="AP1" s="3" t="s">
         <v>196</v>
       </c>
@@ -3808,16 +3869,16 @@
       <c r="AU1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="AX1" s="69" t="s">
+      <c r="AX1" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="AY1" s="69" t="s">
+      <c r="AY1" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="AZ1" s="69" t="s">
+      <c r="AZ1" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="BA1" s="69" t="s">
+      <c r="BA1" s="71" t="s">
         <v>168</v>
       </c>
       <c r="BE1" s="3" t="s">
@@ -3841,11 +3902,11 @@
       <c r="BN1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="BO1" s="69" t="s">
+      <c r="BO1" s="71" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="2:67">
+    <row r="2" spans="2:67" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>68</v>
       </c>
@@ -3858,7 +3919,7 @@
       <c r="G2" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="9">
         <v>16989</v>
       </c>
       <c r="J2" t="s">
@@ -3883,7 +3944,7 @@
       <c r="R2" t="s">
         <v>143</v>
       </c>
-      <c r="Z2" s="67" t="s">
+      <c r="Z2" s="69" t="s">
         <v>14</v>
       </c>
       <c r="AA2">
@@ -3913,7 +3974,7 @@
       <c r="AN2">
         <v>100</v>
       </c>
-      <c r="AP2" s="10">
+      <c r="AP2" s="12">
         <v>44186</v>
       </c>
       <c r="AQ2" t="s">
@@ -3922,10 +3983,10 @@
       <c r="AR2" t="s">
         <v>204</v>
       </c>
-      <c r="AT2" s="10">
+      <c r="AT2" s="12">
         <v>44197</v>
       </c>
-      <c r="AU2" s="10">
+      <c r="AU2" s="12">
         <v>44227</v>
       </c>
       <c r="AX2">
@@ -3960,17 +4021,17 @@
       <c r="BK2" s="2">
         <v>9</v>
       </c>
-      <c r="BM2" s="66" t="s">
+      <c r="BM2" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="BN2" s="66">
+      <c r="BN2" s="68">
         <v>42</v>
       </c>
-      <c r="BO2" s="79" t="s">
+      <c r="BO2" s="82" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="2:67">
+    <row r="3" spans="2:67" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>45</v>
       </c>
@@ -3980,7 +4041,7 @@
       <c r="G3" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="9">
         <v>17187</v>
       </c>
       <c r="N3">
@@ -4004,7 +4065,7 @@
       <c r="AI3">
         <v>1</v>
       </c>
-      <c r="AP3" s="10">
+      <c r="AP3" s="12">
         <f>AP2+7</f>
         <v>44193</v>
       </c>
@@ -4045,17 +4106,17 @@
       <c r="BK3" s="2">
         <v>8</v>
       </c>
-      <c r="BM3" s="66" t="s">
+      <c r="BM3" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="BN3" s="66">
+      <c r="BN3" s="68">
         <v>45</v>
       </c>
-      <c r="BO3" s="79" t="s">
+      <c r="BO3" s="82" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="2:67">
+    <row r="4" spans="2:67" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>89</v>
       </c>
@@ -4065,7 +4126,7 @@
       <c r="G4" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="9">
         <v>18531</v>
       </c>
       <c r="N4">
@@ -4089,7 +4150,7 @@
       <c r="AI4">
         <v>2</v>
       </c>
-      <c r="AP4" s="10">
+      <c r="AP4" s="12">
         <f t="shared" ref="AP4:AP9" si="0">AP3+7</f>
         <v>44200</v>
       </c>
@@ -4130,17 +4191,17 @@
       <c r="BK4" s="2">
         <v>8</v>
       </c>
-      <c r="BM4" s="66" t="s">
+      <c r="BM4" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="BN4" s="66">
+      <c r="BN4" s="68">
         <v>22</v>
       </c>
-      <c r="BO4" s="79" t="s">
+      <c r="BO4" s="82" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="2:67">
+    <row r="5" spans="2:67" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>88</v>
       </c>
@@ -4150,7 +4211,7 @@
       <c r="G5" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="9">
         <v>15714</v>
       </c>
       <c r="N5">
@@ -4174,7 +4235,7 @@
       <c r="AI5">
         <v>5</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AP5" s="12">
         <f t="shared" si="0"/>
         <v>44207</v>
       </c>
@@ -4215,17 +4276,17 @@
       <c r="BK5" s="2">
         <v>9</v>
       </c>
-      <c r="BM5" s="68" t="s">
+      <c r="BM5" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="BN5" s="68">
+      <c r="BN5" s="70">
         <v>18</v>
       </c>
-      <c r="BO5" s="79" t="s">
+      <c r="BO5" s="82" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="2:67">
+    <row r="6" spans="2:67" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>20</v>
       </c>
@@ -4235,7 +4296,7 @@
       <c r="G6" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="9">
         <v>12374</v>
       </c>
       <c r="N6">
@@ -4259,7 +4320,7 @@
       <c r="AI6">
         <v>4</v>
       </c>
-      <c r="AP6" s="10">
+      <c r="AP6" s="12">
         <f t="shared" si="0"/>
         <v>44214</v>
       </c>
@@ -4301,7 +4362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:67">
+    <row r="7" spans="2:67" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>93</v>
       </c>
@@ -4311,7 +4372,7 @@
       <c r="G7" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="9">
         <v>16219</v>
       </c>
       <c r="N7">
@@ -4335,7 +4396,7 @@
       <c r="AI7">
         <v>1</v>
       </c>
-      <c r="AP7" s="10">
+      <c r="AP7" s="12">
         <f t="shared" si="0"/>
         <v>44221</v>
       </c>
@@ -4377,7 +4438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:67">
+    <row r="8" spans="2:67" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>98</v>
       </c>
@@ -4387,7 +4448,7 @@
       <c r="G8" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="9">
         <v>17994</v>
       </c>
       <c r="N8">
@@ -4408,7 +4469,7 @@
       <c r="AI8">
         <v>2</v>
       </c>
-      <c r="AP8" s="10">
+      <c r="AP8" s="12">
         <f t="shared" si="0"/>
         <v>44228</v>
       </c>
@@ -4450,7 +4511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:67">
+    <row r="9" spans="2:67" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>93</v>
       </c>
@@ -4460,13 +4521,13 @@
       <c r="G9" t="s">
         <v>125</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="9">
         <v>14835</v>
       </c>
       <c r="N9">
         <v>66</v>
       </c>
-      <c r="AP9" s="10">
+      <c r="AP9" s="12">
         <f t="shared" si="0"/>
         <v>44235</v>
       </c>
@@ -4489,7 +4550,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:67">
+    <row r="10" spans="2:67" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>82</v>
       </c>
@@ -4499,7 +4560,7 @@
       <c r="G10" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="9">
         <v>15477</v>
       </c>
       <c r="N10">
@@ -4518,7 +4579,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:67">
+    <row r="11" spans="2:67" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>62</v>
       </c>
@@ -4528,7 +4589,7 @@
       <c r="G11" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="9">
         <v>16413</v>
       </c>
       <c r="N11">
@@ -4546,17 +4607,17 @@
       <c r="BA11">
         <v>66</v>
       </c>
-      <c r="BH11" s="27" t="s">
+      <c r="BH11" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="BI11" s="27" t="s">
+      <c r="BI11" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="BJ11" s="27" t="s">
+      <c r="BJ11" s="29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="2:67">
+    <row r="12" spans="2:67" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>82</v>
       </c>
@@ -4566,7 +4627,7 @@
       <c r="G12" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="9">
         <v>10355</v>
       </c>
       <c r="AX12">
@@ -4581,17 +4642,17 @@
       <c r="BA12">
         <v>9</v>
       </c>
-      <c r="BH12" s="14" t="s">
+      <c r="BH12" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="BI12" s="14" t="s">
+      <c r="BI12" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="BJ12" s="65">
+      <c r="BJ12" s="67">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:67">
+    <row r="13" spans="2:67" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>24</v>
       </c>
@@ -4601,20 +4662,20 @@
       <c r="G13" t="s">
         <v>128</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="9">
         <v>18065</v>
       </c>
-      <c r="BH13" s="14" t="s">
+      <c r="BH13" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="BI13" s="14" t="s">
+      <c r="BI13" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="BJ13" s="65">
+      <c r="BJ13" s="67">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:67">
+    <row r="14" spans="2:67" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>56</v>
       </c>
@@ -4624,20 +4685,20 @@
       <c r="G14" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="9">
         <v>16682</v>
       </c>
-      <c r="BH14" s="14" t="s">
+      <c r="BH14" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="BI14" s="14" t="s">
+      <c r="BI14" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="BJ14" s="65">
+      <c r="BJ14" s="67">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:67">
+    <row r="15" spans="2:67" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>98</v>
       </c>
@@ -4647,11 +4708,11 @@
       <c r="G15" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="9">
         <v>18526</v>
       </c>
     </row>
-    <row r="16" spans="2:67">
+    <row r="16" spans="2:67" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>2</v>
       </c>
@@ -4661,11 +4722,11 @@
       <c r="G16" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="9">
         <v>13157</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>27</v>
       </c>
@@ -4675,11 +4736,11 @@
       <c r="G17" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="9">
         <v>17950</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>90</v>
       </c>
@@ -4689,11 +4750,11 @@
       <c r="G18" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="9">
         <v>19269</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>21</v>
       </c>
@@ -4703,11 +4764,11 @@
       <c r="G19" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="9">
         <v>19200</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>28</v>
       </c>
@@ -4717,47 +4778,47 @@
       <c r="G20" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="9">
         <v>16820</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F21" t="s">
         <v>3</v>
       </c>
       <c r="G21" t="s">
         <v>128</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="9">
         <v>11357</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
         <v>130</v>
       </c>
       <c r="G22" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="9">
         <v>12761</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F23" t="s">
         <v>2</v>
       </c>
       <c r="G23" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="9">
         <v>17436</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="BH2:BK8">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>VLOOKUP($BH2,$BH$12:$BJ$14,3,0)&lt;&gt;$BK2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4767,27 +4828,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299BEF49-409A-4876-91AD-6367ACC27296}">
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="2.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.90625" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="45">
+    <row r="1" spans="1:32" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>121</v>
       </c>
@@ -4824,13 +4885,13 @@
       <c r="R1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="71" t="s">
         <v>228</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="V1" s="69" t="s">
+      <c r="V1" s="71" t="s">
         <v>229</v>
       </c>
       <c r="X1" s="3" t="s">
@@ -4840,14 +4901,14 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>68</v>
       </c>
       <c r="C2">
         <v>60</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="12">
         <v>44186</v>
       </c>
       <c r="F2" t="s">
@@ -4856,10 +4917,10 @@
       <c r="G2" t="s">
         <v>204</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="12">
         <v>44197</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="12">
         <v>44227</v>
       </c>
       <c r="L2">
@@ -4878,7 +4939,7 @@
       <c r="R2" t="s">
         <v>152</v>
       </c>
-      <c r="S2" s="80">
+      <c r="S2" s="83">
         <v>0.97809948957242054</v>
       </c>
       <c r="U2" t="s">
@@ -4887,7 +4948,7 @@
       <c r="V2">
         <v>1</v>
       </c>
-      <c r="X2" s="70" t="s">
+      <c r="X2" s="72" t="s">
         <v>133</v>
       </c>
       <c r="Y2">
@@ -4917,11 +4978,11 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>57</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="12">
         <f>E2+7</f>
         <v>44193</v>
       </c>
@@ -4940,7 +5001,7 @@
       <c r="R3" t="s">
         <v>153</v>
       </c>
-      <c r="S3" s="80">
+      <c r="S3" s="83">
         <v>0.67672520302205874</v>
       </c>
       <c r="U3" t="s">
@@ -4949,7 +5010,7 @@
       <c r="V3">
         <v>-1</v>
       </c>
-      <c r="X3" s="70" t="s">
+      <c r="X3" s="72" t="s">
         <v>134</v>
       </c>
       <c r="Y3">
@@ -4976,11 +5037,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>89</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="12">
         <f t="shared" ref="E4:E9" si="2">E3+7</f>
         <v>44200</v>
       </c>
@@ -4999,7 +5060,7 @@
       <c r="R4" t="s">
         <v>154</v>
       </c>
-      <c r="S4" s="80">
+      <c r="S4" s="83">
         <v>0.37263956014236277</v>
       </c>
       <c r="U4" t="s">
@@ -5008,7 +5069,7 @@
       <c r="V4">
         <v>1</v>
       </c>
-      <c r="X4" s="70" t="s">
+      <c r="X4" s="72" t="s">
         <v>135</v>
       </c>
       <c r="Y4">
@@ -5035,11 +5096,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>88</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="12">
         <f t="shared" si="2"/>
         <v>44207</v>
       </c>
@@ -5058,7 +5119,7 @@
       <c r="R5" t="s">
         <v>215</v>
       </c>
-      <c r="S5" s="80">
+      <c r="S5" s="83">
         <v>0.28166735293004785</v>
       </c>
       <c r="U5" t="s">
@@ -5067,7 +5128,7 @@
       <c r="V5">
         <v>0</v>
       </c>
-      <c r="X5" s="70" t="s">
+      <c r="X5" s="72" t="s">
         <v>136</v>
       </c>
       <c r="Y5">
@@ -5094,11 +5155,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>70</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="12">
         <f t="shared" si="2"/>
         <v>44214</v>
       </c>
@@ -5117,7 +5178,7 @@
       <c r="R6" t="s">
         <v>216</v>
       </c>
-      <c r="S6" s="80">
+      <c r="S6" s="83">
         <v>0.13005744120292284</v>
       </c>
       <c r="U6" t="s">
@@ -5126,7 +5187,7 @@
       <c r="V6">
         <v>1</v>
       </c>
-      <c r="X6" s="70" t="s">
+      <c r="X6" s="72" t="s">
         <v>137</v>
       </c>
       <c r="Y6">
@@ -5153,11 +5214,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>93</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="12">
         <f t="shared" si="2"/>
         <v>44221</v>
       </c>
@@ -5176,10 +5237,10 @@
       <c r="R7" t="s">
         <v>217</v>
       </c>
-      <c r="S7" s="80">
+      <c r="S7" s="83">
         <v>0.27</v>
       </c>
-      <c r="X7" s="70" t="s">
+      <c r="X7" s="72" t="s">
         <v>138</v>
       </c>
       <c r="Y7">
@@ -5206,11 +5267,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>98</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="12">
         <f t="shared" si="2"/>
         <v>44228</v>
       </c>
@@ -5229,10 +5290,10 @@
       <c r="R8" t="s">
         <v>218</v>
       </c>
-      <c r="S8" s="80">
+      <c r="S8" s="83">
         <v>0.69761399646194322</v>
       </c>
-      <c r="X8" s="70" t="s">
+      <c r="X8" s="72" t="s">
         <v>139</v>
       </c>
       <c r="Y8">
@@ -5259,11 +5320,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>93</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="12">
         <f t="shared" si="2"/>
         <v>44235</v>
       </c>
@@ -5279,10 +5340,10 @@
       <c r="R9" t="s">
         <v>219</v>
       </c>
-      <c r="S9" s="80">
+      <c r="S9" s="83">
         <v>0.79816754783045596</v>
       </c>
-      <c r="X9" s="70" t="s">
+      <c r="X9" s="72" t="s">
         <v>140</v>
       </c>
       <c r="Y9">
@@ -5309,7 +5370,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>82</v>
       </c>
@@ -5322,10 +5383,10 @@
       <c r="R10" t="s">
         <v>220</v>
       </c>
-      <c r="S10" s="80">
+      <c r="S10" s="83">
         <v>0.18222670981610456</v>
       </c>
-      <c r="X10" s="70" t="s">
+      <c r="X10" s="72" t="s">
         <v>141</v>
       </c>
       <c r="Y10">
@@ -5352,15 +5413,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>62</v>
       </c>
       <c r="N11">
         <v>68</v>
       </c>
-      <c r="S11" s="80"/>
-      <c r="X11" s="70" t="s">
+      <c r="S11" s="83"/>
+      <c r="X11" s="72" t="s">
         <v>142</v>
       </c>
       <c r="Y11">
@@ -5387,47 +5448,47 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>28</v>
       </c>
